--- a/data/trans_orig/P5_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24390169-E876-45AA-A5C8-98DEFC4A2EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBCAD38D-7630-4DC2-842D-293BA6EF379B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02AE6091-B3C2-4E7D-B30B-2C91DF610322}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2275B654-3661-472C-AF50-458B281B476A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="440">
   <si>
     <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>24,49%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,115 +107,115 @@
     <t>75,51%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>34,06%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
   </si>
   <si>
     <t>65,94%</t>
   </si>
   <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
   </si>
   <si>
     <t>67,15%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>24,29%</t>
+    <t>24,55%</t>
   </si>
   <si>
     <t>33,07%</t>
@@ -224,19 +224,19 @@
     <t>66,4%</t>
   </si>
   <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>76,42%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>71,11%</t>
@@ -245,64 +245,64 @@
     <t>66,93%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>76,83%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,703 +311,715 @@
     <t>24,7%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>75,3%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>69,04%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>72,09%</t>
   </si>
   <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
   </si>
   <si>
     <t>28,02%</t>
   </si>
   <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>74,18%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
     <t>34,66%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>65,34%</t>
   </si>
   <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
   </si>
   <si>
     <t>67,62%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
   </si>
   <si>
     <t>49,98%</t>
   </si>
   <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
   </si>
   <si>
     <t>51,05%</t>
   </si>
   <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>50,02%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
   </si>
   <si>
     <t>48,95%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>49,5%</t>
   </si>
   <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>38,26%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>38,15%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
   </si>
   <si>
     <t>61,97%</t>
   </si>
   <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>61,85%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2015 (Tasa respuesta: 75,92%)</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 75,92%)</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>6,31%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>37,4%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>23,07%</t>
   </si>
   <si>
     <t>50,44%</t>
   </si>
   <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>93,69%</t>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>62,6%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>76,93%</t>
   </si>
   <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>37,23%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>61,41%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>62,77%</t>
   </si>
   <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>25,41%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>74,59%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
   </si>
   <si>
     <t>36,92%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>35,69%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
   </si>
   <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>64,31%</t>
   </si>
   <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>46,32%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
   </si>
   <si>
     <t>37,96%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>53,68%</t>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>62,04%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
   </si>
   <si>
     <t>35,0%</t>
@@ -1016,43 +1028,37 @@
     <t>31,58%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
   </si>
   <si>
     <t>65,0%</t>
   </si>
   <si>
-    <t>61,6%</t>
-  </si>
-  <si>
     <t>68,42%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
   </si>
   <si>
     <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,9%)</t>
@@ -1088,259 +1094,271 @@
     <t>6,02%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
     <t>3,91%</t>
   </si>
   <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
   <si>
     <t>81,74%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
   </si>
   <si>
     <t>80,32%</t>
   </si>
   <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
   </si>
   <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>70,4%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>79,93%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>80,91%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE04DA3-80E8-456E-93AB-CB8613C4E33F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949CB8E7-C992-41EB-BF86-11B37461014E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2815,7 +2833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F12960A-761A-4BBE-A4D7-AAAB72BAFAA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E58343-01BB-4A9D-8CFC-C52C3F17D25A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3878,7 +3896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697C7B0-89CB-46E4-AFBE-092185F66B12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0494CC2B-400D-4D8D-B5D2-3B5B946B5AD9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4023,7 +4041,7 @@
         <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4032,13 +4050,13 @@
         <v>12194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,10 +4089,10 @@
         <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4083,10 +4101,10 @@
         <v>20414</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>251</v>
@@ -4333,7 +4351,7 @@
         <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -4342,13 +4360,13 @@
         <v>107851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4381,13 @@
         <v>113993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>171</v>
@@ -4378,13 +4396,13 @@
         <v>105386</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>342</v>
@@ -4393,13 +4411,13 @@
         <v>219379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4485,13 @@
         <v>49041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -4482,13 +4500,13 @@
         <v>41594</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -4497,13 +4515,13 @@
         <v>90635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4536,13 @@
         <v>83806</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>123</v>
@@ -4533,13 +4551,13 @@
         <v>74958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>244</v>
@@ -4548,13 +4566,13 @@
         <v>158764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4640,13 @@
         <v>62920</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -4637,13 +4655,13 @@
         <v>62888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -4652,13 +4670,13 @@
         <v>125809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4691,13 @@
         <v>95288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>139</v>
@@ -4688,13 +4706,13 @@
         <v>102771</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>273</v>
@@ -4703,13 +4721,13 @@
         <v>198059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4795,13 @@
         <v>213394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -4792,13 +4810,13 @@
         <v>183462</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>591</v>
@@ -4807,13 +4825,13 @@
         <v>396856</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4846,13 @@
         <v>357639</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>512</v>
@@ -4843,13 +4861,13 @@
         <v>340761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>1023</v>
@@ -4858,13 +4876,13 @@
         <v>698400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7A5D1C-2421-4383-A62E-E26BCC952C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA17B0-29F7-440B-B501-91C0947C7F04}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4958,7 +4976,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5065,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5080,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5095,13 +5113,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,10 +5134,10 @@
         <v>12698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5131,10 +5149,10 @@
         <v>16787</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -5146,10 +5164,10 @@
         <v>29485</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -5220,13 +5238,13 @@
         <v>6898</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5235,13 +5253,13 @@
         <v>7603</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -5250,13 +5268,13 @@
         <v>14501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5289,13 @@
         <v>107698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>157</v>
@@ -5286,13 +5304,13 @@
         <v>96292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>299</v>
@@ -5301,13 +5319,13 @@
         <v>203989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5393,13 @@
         <v>24991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -5390,13 +5408,13 @@
         <v>30743</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -5405,13 +5423,13 @@
         <v>55735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5444,13 @@
         <v>225195</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H11" s="7">
         <v>235</v>
@@ -5441,13 +5459,13 @@
         <v>161609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>543</v>
@@ -5456,13 +5474,13 @@
         <v>386803</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5548,13 @@
         <v>31628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -5545,13 +5563,13 @@
         <v>35661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -5560,13 +5578,13 @@
         <v>67289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5599,13 @@
         <v>141580</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -5596,13 +5614,13 @@
         <v>133074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
         <v>367</v>
@@ -5611,13 +5629,13 @@
         <v>274654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5703,13 @@
         <v>61568</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -5700,13 +5718,13 @@
         <v>50541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5715,13 +5733,13 @@
         <v>112108</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5754,13 @@
         <v>112546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -5751,13 +5769,13 @@
         <v>120231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>322</v>
@@ -5766,13 +5784,13 @@
         <v>232777</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5858,13 @@
         <v>125085</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H19" s="7">
         <v>168</v>
@@ -5855,13 +5873,13 @@
         <v>124548</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -5870,13 +5888,13 @@
         <v>249633</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5909,13 @@
         <v>599717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>774</v>
@@ -5906,13 +5924,13 @@
         <v>527992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M20" s="7">
         <v>1578</v>
@@ -5921,13 +5939,13 @@
         <v>1127710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P5_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBCAD38D-7630-4DC2-842D-293BA6EF379B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7425C56E-1D30-4801-B07E-FDBDB15FE0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2275B654-3661-472C-AF50-458B281B476A}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{AC4DB84E-DE6C-4541-BA10-FFC10FECA03F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="374">
   <si>
     <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1297 +68,1099 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
   </si>
   <si>
     <t>71,11%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>18,92%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 75,92%)</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
   </si>
   <si>
     <t>71,81%</t>
   </si>
   <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
   </si>
   <si>
     <t>41,81%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
   </si>
   <si>
     <t>58,19%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 75,92%)</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
 </sst>
 </file>
@@ -1770,8 +1572,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949CB8E7-C992-41EB-BF86-11B37461014E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD93E96-1C49-4186-8491-B00CED8E6440}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1888,10 +1690,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>5806</v>
+        <v>33298</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1903,10 +1705,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="I4" s="7">
-        <v>4983</v>
+        <v>38018</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1918,10 +1720,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="N4" s="7">
-        <v>10789</v>
+        <v>71317</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1939,10 +1741,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>17902</v>
+        <v>71911</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1954,10 +1756,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>14026</v>
+        <v>80271</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1969,10 +1771,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="N5" s="7">
-        <v>31928</v>
+        <v>152182</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1990,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="D6" s="7">
-        <v>23708</v>
+        <v>105209</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1807,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I6" s="7">
-        <v>19009</v>
+        <v>118289</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2020,10 +1822,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="N6" s="7">
-        <v>42717</v>
+        <v>223499</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2043,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>32213</v>
+        <v>29470</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2058,10 +1860,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>28315</v>
+        <v>47290</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2073,10 +1875,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>60528</v>
+        <v>76760</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2094,10 +1896,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>62368</v>
+        <v>95495</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2109,10 +1911,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>57886</v>
+        <v>93452</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2124,10 +1926,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="N8" s="7">
-        <v>120254</v>
+        <v>188947</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2145,10 +1947,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="D9" s="7">
-        <v>94581</v>
+        <v>124965</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1962,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="I9" s="7">
-        <v>86201</v>
+        <v>140742</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2175,10 +1977,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>269</v>
+        <v>417</v>
       </c>
       <c r="N9" s="7">
-        <v>180782</v>
+        <v>265707</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2198,10 +2000,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>47290</v>
+        <v>27494</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2213,10 +2015,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>29470</v>
+        <v>23567</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2228,10 +2030,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>76760</v>
+        <v>51061</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2249,10 +2051,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>93452</v>
+        <v>80354</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2264,10 +2066,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="I11" s="7">
-        <v>95495</v>
+        <v>89006</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2279,10 +2081,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N11" s="7">
-        <v>188947</v>
+        <v>169359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2300,10 +2102,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="D12" s="7">
-        <v>140742</v>
+        <v>107848</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2117,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="I12" s="7">
-        <v>124965</v>
+        <v>112573</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2330,10 +2132,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="N12" s="7">
-        <v>265707</v>
+        <v>220420</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2353,10 +2155,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>23567</v>
+        <v>51193</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2368,10 +2170,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>27494</v>
+        <v>38772</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2383,10 +2185,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="N13" s="7">
-        <v>51061</v>
+        <v>89965</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2404,10 +2206,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D14" s="7">
-        <v>89006</v>
+        <v>114143</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2419,10 +2221,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="I14" s="7">
-        <v>80354</v>
+        <v>118174</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2434,10 +2236,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="N14" s="7">
-        <v>169359</v>
+        <v>232317</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2455,10 +2257,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7">
-        <v>112573</v>
+        <v>165336</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2272,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="I15" s="7">
-        <v>107848</v>
+        <v>156946</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2485,10 +2287,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="N15" s="7">
-        <v>220420</v>
+        <v>322282</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2502,55 +2304,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="D16" s="7">
-        <v>38772</v>
+        <v>141455</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>222</v>
+      </c>
+      <c r="I16" s="7">
+        <v>147647</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>68</v>
-      </c>
-      <c r="I16" s="7">
-        <v>51193</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>432</v>
+      </c>
+      <c r="N16" s="7">
+        <v>289103</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>125</v>
-      </c>
-      <c r="N16" s="7">
-        <v>89965</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,49 +2361,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>174</v>
+        <v>536</v>
       </c>
       <c r="D17" s="7">
-        <v>118174</v>
+        <v>361904</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>570</v>
+      </c>
+      <c r="I17" s="7">
+        <v>380902</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>148</v>
-      </c>
-      <c r="I17" s="7">
-        <v>114143</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1106</v>
+      </c>
+      <c r="N17" s="7">
+        <v>742805</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>322</v>
-      </c>
-      <c r="N17" s="7">
-        <v>232317</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,10 +2412,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>231</v>
+        <v>746</v>
       </c>
       <c r="D18" s="7">
-        <v>156946</v>
+        <v>503359</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2427,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>216</v>
+        <v>792</v>
       </c>
       <c r="I18" s="7">
-        <v>165336</v>
+        <v>528549</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2640,10 +2442,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>447</v>
+        <v>1538</v>
       </c>
       <c r="N18" s="7">
-        <v>322282</v>
+        <v>1031908</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2656,171 +2458,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>222</v>
-      </c>
-      <c r="D19" s="7">
-        <v>147648</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>210</v>
-      </c>
-      <c r="I19" s="7">
-        <v>141455</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>432</v>
-      </c>
-      <c r="N19" s="7">
-        <v>289103</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>570</v>
-      </c>
-      <c r="D20" s="7">
-        <v>380902</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>536</v>
-      </c>
-      <c r="I20" s="7">
-        <v>361904</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1106</v>
-      </c>
-      <c r="N20" s="7">
-        <v>742805</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>792</v>
-      </c>
-      <c r="D21" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>746</v>
-      </c>
-      <c r="I21" s="7">
-        <v>503359</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1538</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1031908</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2833,8 +2479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E58343-01BB-4A9D-8CFC-C52C3F17D25A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8394BEFF-4405-4E5E-AE6B-5A9B3E38F0E4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2850,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2951,49 +2597,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>4739</v>
+        <v>33569</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I4" s="7">
-        <v>5297</v>
+        <v>42151</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="N4" s="7">
-        <v>10036</v>
+        <v>75720</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,49 +2648,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>11354</v>
+        <v>63560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>10736</v>
+        <v>70350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="N5" s="7">
-        <v>22090</v>
+        <v>133909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,10 +2699,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>16093</v>
+        <v>97129</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2714,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="I6" s="7">
-        <v>16033</v>
+        <v>112501</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3083,10 +2729,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="N6" s="7">
-        <v>32126</v>
+        <v>209629</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3106,49 +2752,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7" s="7">
-        <v>37411</v>
+        <v>39351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I7" s="7">
-        <v>28272</v>
+        <v>46076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="N7" s="7">
-        <v>65684</v>
+        <v>85426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,49 +2803,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>58996</v>
+        <v>89632</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>52824</v>
+        <v>108480</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="N8" s="7">
-        <v>111819</v>
+        <v>198113</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D9" s="7">
-        <v>96407</v>
+        <v>128983</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2869,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="I9" s="7">
-        <v>81096</v>
+        <v>154556</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3238,10 +2884,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>252</v>
+        <v>422</v>
       </c>
       <c r="N9" s="7">
-        <v>177503</v>
+        <v>283539</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3261,49 +2907,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>46076</v>
+        <v>33953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>39351</v>
+        <v>40473</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>85426</v>
+        <v>74425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,49 +2958,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>111</v>
+      </c>
+      <c r="D11" s="7">
+        <v>70898</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>116</v>
+      </c>
+      <c r="I11" s="7">
+        <v>76311</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="7">
+        <v>227</v>
+      </c>
+      <c r="N11" s="7">
+        <v>147209</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="D11" s="7">
-        <v>108480</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="7">
-        <v>140</v>
-      </c>
-      <c r="I11" s="7">
-        <v>89632</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M11" s="7">
-        <v>299</v>
-      </c>
-      <c r="N11" s="7">
-        <v>198113</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="D12" s="7">
-        <v>154556</v>
+        <v>104851</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3024,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7">
-        <v>128983</v>
+        <v>116784</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3393,10 +3039,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="N12" s="7">
-        <v>283539</v>
+        <v>221634</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3416,49 +3062,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>40473</v>
+        <v>74535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="I13" s="7">
-        <v>33953</v>
+        <v>77443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="N13" s="7">
-        <v>74425</v>
+        <v>151978</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,49 +3113,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D14" s="7">
-        <v>76311</v>
+        <v>71467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I14" s="7">
-        <v>70898</v>
+        <v>77498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="N14" s="7">
-        <v>147209</v>
+        <v>148965</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D15" s="7">
-        <v>116784</v>
+        <v>146002</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="I15" s="7">
-        <v>104851</v>
+        <v>154941</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3548,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="N15" s="7">
-        <v>221634</v>
+        <v>300943</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3565,55 +3211,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="D16" s="7">
-        <v>77443</v>
+        <v>181408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="I16" s="7">
-        <v>74535</v>
+        <v>206142</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>205</v>
+        <v>549</v>
       </c>
       <c r="N16" s="7">
-        <v>151978</v>
+        <v>387550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,49 +3268,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>105</v>
+        <v>431</v>
       </c>
       <c r="D17" s="7">
-        <v>77498</v>
+        <v>295557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="I17" s="7">
-        <v>71467</v>
+        <v>332639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>198</v>
+        <v>907</v>
       </c>
       <c r="N17" s="7">
-        <v>148965</v>
+        <v>628196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,10 +3319,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>212</v>
+        <v>687</v>
       </c>
       <c r="D18" s="7">
-        <v>154941</v>
+        <v>476965</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3334,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>191</v>
+        <v>769</v>
       </c>
       <c r="I18" s="7">
-        <v>146002</v>
+        <v>538781</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3703,10 +3349,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>403</v>
+        <v>1456</v>
       </c>
       <c r="N18" s="7">
-        <v>300943</v>
+        <v>1015746</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3719,171 +3365,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>293</v>
-      </c>
-      <c r="D19" s="7">
-        <v>206142</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="7">
-        <v>256</v>
-      </c>
-      <c r="I19" s="7">
-        <v>181408</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="7">
-        <v>549</v>
-      </c>
-      <c r="N19" s="7">
-        <v>387550</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>476</v>
-      </c>
-      <c r="D20" s="7">
-        <v>332639</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="7">
-        <v>431</v>
-      </c>
-      <c r="I20" s="7">
-        <v>295557</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M20" s="7">
-        <v>907</v>
-      </c>
-      <c r="N20" s="7">
-        <v>628196</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>769</v>
-      </c>
-      <c r="D21" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>687</v>
-      </c>
-      <c r="I21" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3896,8 +3386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0494CC2B-400D-4D8D-B5D2-3B5B946B5AD9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1E21D6-264D-4F30-842E-9BC39AED5173}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3913,7 +3403,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4014,49 +3504,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>8760</v>
+        <v>32440</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>3434</v>
+        <v>40122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="N4" s="7">
-        <v>12194</v>
+        <v>72561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,49 +3555,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7">
-        <v>8918</v>
+        <v>57645</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="I5" s="7">
-        <v>11496</v>
+        <v>64552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="N5" s="7">
-        <v>20414</v>
+        <v>122198</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,10 +3606,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D6" s="7">
-        <v>17678</v>
+        <v>90085</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3621,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="I6" s="7">
-        <v>14930</v>
+        <v>104674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4146,10 +3636,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="N6" s="7">
-        <v>32608</v>
+        <v>194759</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4169,49 +3659,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>31362</v>
+        <v>46541</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>29006</v>
+        <v>61310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="N7" s="7">
-        <v>60367</v>
+        <v>107851</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,49 +3710,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>55634</v>
+        <v>105386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="I8" s="7">
-        <v>46149</v>
+        <v>113993</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="N8" s="7">
-        <v>101784</v>
+        <v>219379</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,10 +3761,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="D9" s="7">
-        <v>86996</v>
+        <v>151927</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3776,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="I9" s="7">
-        <v>75155</v>
+        <v>175303</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4301,10 +3791,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>229</v>
+        <v>507</v>
       </c>
       <c r="N9" s="7">
-        <v>162151</v>
+        <v>327230</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4324,49 +3814,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>61310</v>
+        <v>41594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7">
-        <v>46541</v>
+        <v>49041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="N10" s="7">
-        <v>107851</v>
+        <v>90635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,49 +3865,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D11" s="7">
-        <v>113993</v>
+        <v>74958</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>105386</v>
+        <v>83806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="N11" s="7">
-        <v>219379</v>
+        <v>158764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,10 +3916,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="D12" s="7">
-        <v>175303</v>
+        <v>116552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3931,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="I12" s="7">
-        <v>151927</v>
+        <v>132847</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4456,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>507</v>
+        <v>393</v>
       </c>
       <c r="N12" s="7">
-        <v>327230</v>
+        <v>249399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4479,49 +3969,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7">
-        <v>49041</v>
+        <v>62888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I13" s="7">
-        <v>41594</v>
+        <v>62920</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="N13" s="7">
-        <v>90635</v>
+        <v>125809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,49 +4020,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D14" s="7">
-        <v>83806</v>
+        <v>102771</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I14" s="7">
-        <v>74958</v>
+        <v>95288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="N14" s="7">
-        <v>158764</v>
+        <v>198059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,10 +4071,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D15" s="7">
-        <v>132847</v>
+        <v>165659</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4086,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>116552</v>
+        <v>158208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4611,10 +4101,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="N15" s="7">
-        <v>249399</v>
+        <v>323868</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4628,55 +4118,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="D16" s="7">
-        <v>62920</v>
+        <v>183462</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>84</v>
+        <v>314</v>
       </c>
       <c r="I16" s="7">
-        <v>62888</v>
+        <v>213394</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>176</v>
+        <v>591</v>
       </c>
       <c r="N16" s="7">
-        <v>125809</v>
+        <v>396856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,49 +4175,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>134</v>
+        <v>512</v>
       </c>
       <c r="D17" s="7">
-        <v>95288</v>
+        <v>340761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
+        <v>511</v>
+      </c>
+      <c r="I17" s="7">
+        <v>357639</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1023</v>
+      </c>
+      <c r="N17" s="7">
+        <v>698400</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I17" s="7">
-        <v>102771</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M17" s="7">
-        <v>273</v>
-      </c>
-      <c r="N17" s="7">
-        <v>198059</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,10 +4226,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>226</v>
+        <v>789</v>
       </c>
       <c r="D18" s="7">
-        <v>158208</v>
+        <v>524223</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4241,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>825</v>
       </c>
       <c r="I18" s="7">
-        <v>165659</v>
+        <v>571033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4766,10 +4256,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>449</v>
+        <v>1614</v>
       </c>
       <c r="N18" s="7">
-        <v>323868</v>
+        <v>1095256</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4782,171 +4272,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>314</v>
-      </c>
-      <c r="D19" s="7">
-        <v>213394</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H19" s="7">
-        <v>277</v>
-      </c>
-      <c r="I19" s="7">
-        <v>183462</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M19" s="7">
-        <v>591</v>
-      </c>
-      <c r="N19" s="7">
-        <v>396856</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>511</v>
-      </c>
-      <c r="D20" s="7">
-        <v>357639</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="7">
-        <v>512</v>
-      </c>
-      <c r="I20" s="7">
-        <v>340761</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1023</v>
-      </c>
-      <c r="N20" s="7">
-        <v>698400</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>825</v>
-      </c>
-      <c r="D21" s="7">
-        <v>571033</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>789</v>
-      </c>
-      <c r="I21" s="7">
-        <v>524223</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1614</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1095256</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4959,8 +4293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA17B0-29F7-440B-B501-91C0947C7F04}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1764BE6B-6C29-4A49-A9ED-B30CBEE79715}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4976,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5077,49 +4411,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7627</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7186</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>14813</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,49 +4462,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>12698</v>
+        <v>109653</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="7">
+        <v>161</v>
+      </c>
+      <c r="I5" s="7">
+        <v>133226</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M5" s="7">
         <v>346</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16787</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="7">
-        <v>47</v>
-      </c>
       <c r="N5" s="7">
-        <v>29485</v>
+        <v>242880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,10 +4513,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4528,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5209,10 +4543,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5232,49 +4566,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>6898</v>
+        <v>30143</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>7603</v>
+        <v>25772</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="N7" s="7">
-        <v>14501</v>
+        <v>55915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,49 +4617,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="D8" s="7">
-        <v>107698</v>
+        <v>160369</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="I8" s="7">
-        <v>96292</v>
+        <v>229263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>299</v>
+        <v>543</v>
       </c>
       <c r="N8" s="7">
-        <v>203989</v>
+        <v>389633</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,10 +4668,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4683,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5364,10 +4698,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5387,49 +4721,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>24991</v>
+        <v>53362</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>30743</v>
+        <v>33903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>55735</v>
+        <v>87265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,49 +4772,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>308</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7">
-        <v>225195</v>
+        <v>137039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="I11" s="7">
-        <v>161609</v>
+        <v>151383</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>543</v>
+        <v>367</v>
       </c>
       <c r="N11" s="7">
-        <v>386803</v>
+        <v>288422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,10 +4823,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4838,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5519,10 +4853,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5542,49 +4876,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>31628</v>
+        <v>49937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I13" s="7">
-        <v>35661</v>
+        <v>63357</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="N13" s="7">
-        <v>67289</v>
+        <v>113294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,49 +4927,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>141580</v>
+        <v>116608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="I14" s="7">
-        <v>133074</v>
+        <v>116938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="N14" s="7">
-        <v>274654</v>
+        <v>233546</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,10 +4978,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>166545</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +4993,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I15" s="7">
-        <v>168735</v>
+        <v>180295</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5674,10 +5008,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>341943</v>
+        <v>346840</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5691,55 +5025,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="D16" s="7">
-        <v>61568</v>
+        <v>141069</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="I16" s="7">
-        <v>50541</v>
+        <v>130218</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>154</v>
+        <v>340</v>
       </c>
       <c r="N16" s="7">
-        <v>112108</v>
+        <v>271288</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,49 +5082,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>154</v>
+        <v>774</v>
       </c>
       <c r="D17" s="7">
-        <v>112546</v>
+        <v>523669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
-        <v>168</v>
+        <v>804</v>
       </c>
       <c r="I17" s="7">
-        <v>120231</v>
+        <v>630810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
-        <v>322</v>
+        <v>1578</v>
       </c>
       <c r="N17" s="7">
-        <v>232777</v>
+        <v>1154479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,10 +5133,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>237</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>174114</v>
+        <v>664738</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5148,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>239</v>
+        <v>976</v>
       </c>
       <c r="I18" s="7">
-        <v>170772</v>
+        <v>761028</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5829,10 +5163,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>476</v>
+        <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>344885</v>
+        <v>1425767</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5845,171 +5179,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>172</v>
-      </c>
-      <c r="D19" s="7">
-        <v>125085</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H19" s="7">
-        <v>168</v>
-      </c>
-      <c r="I19" s="7">
-        <v>124548</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M19" s="7">
-        <v>340</v>
-      </c>
-      <c r="N19" s="7">
-        <v>249633</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>804</v>
-      </c>
-      <c r="D20" s="7">
-        <v>599717</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="H20" s="7">
-        <v>774</v>
-      </c>
-      <c r="I20" s="7">
-        <v>527992</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1578</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1127710</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>976</v>
-      </c>
-      <c r="D21" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652540</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1377343</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
